--- a/story_xlsx_files_postpilotiiedits/23.xlsx
+++ b/story_xlsx_files_postpilotiiedits/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">They walked over slowly. </t>
   </si>
   <si>
-    <t xml:space="preserve">Seemingly out of nowhere, Alex took Chloe’s hand and he got down on one knee. </t>
+    <t>Seemingly out of nowhere, Alex took Chloe’s hand and he got down on one knee, and asked, “Will you marry me?”</t>
   </si>
   <si>
     <t>Chloe gasped</t>
@@ -106,13 +106,7 @@
     <t>I can’t imagine a day without you.”</t>
   </si>
   <si>
-    <t>“Alex, me too,” she replied.</t>
-  </si>
-  <si>
     <t>The ring was in the crevice of his wallet, and he opened it.</t>
-  </si>
-  <si>
-    <t>“Will you marry me?”</t>
   </si>
   <si>
     <t>The people in line around them realized what was happening, stepped back, and started taking pictures.</t>
@@ -1463,7 +1457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1852,7 +1846,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
+    <row r="26" ht="44.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1867,8 +1861,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+    <row r="27" ht="80.35" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
       <c r="B27" s="9">
@@ -1882,7 +1876,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="44.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1897,22 +1891,22 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="80.35" customHeight="1">
-      <c r="A29" t="s" s="12">
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="80.05" customHeight="1">
+    <row r="30" ht="44.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1920,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1957,7 +1951,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="44.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1972,7 +1966,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="44.05" customHeight="1">
+    <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -2002,7 +1996,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="68.05" customHeight="1">
+    <row r="36" ht="56.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2017,7 +2011,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="44.05" customHeight="1">
+    <row r="37" ht="56.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2032,12 +2026,12 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="56.05" customHeight="1">
+    <row r="38" ht="68.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
       <c r="B38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
@@ -2047,12 +2041,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="56.05" customHeight="1">
+    <row r="39" ht="92.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B39" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
@@ -2062,7 +2056,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="68.05" customHeight="1">
+    <row r="40" ht="80.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>42</v>
       </c>
@@ -2076,36 +2070,6 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="92.05" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
-      <c r="C41" s="10">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="80.05" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9">
-        <v>4</v>
-      </c>
-      <c r="C42" s="10">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files_postpilotiiedits/23.xlsx
+++ b/story_xlsx_files_postpilotiiedits/23.xlsx
@@ -43,7 +43,7 @@
     <t>Also in the front area were large posters advertising thanksgiving promotions.</t>
   </si>
   <si>
-    <t>The store was buzzing with activity because the next day was Thanksgiving Day, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
+    <t>The store was buzzing with activity because the next day was Thanksgivin, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose here because he knew Chloe would be wonderfully surprised. </t>
@@ -67,7 +67,7 @@
     <t>She had a can of pumpkin puree and a bottle of vinegar picked out and was now mulling over the different cans of cranberry sauce.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex was guessing she would be a while, and so he turned his back to her and pulled out the ring to look at it one more time. </t>
+    <t xml:space="preserve">Alex was guessing she would be a while, so he turned his back to her and pulled out the ring to look at it one more time. </t>
   </si>
   <si>
     <t xml:space="preserve">The ring consisted of a thin band with one white diamond that glittered excessively in the light. </t>
@@ -76,16 +76,16 @@
     <t xml:space="preserve">“Do we need anything else?” she called out to him. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Yeah I don’t know, honey,” he said back, still looking at the ring. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the checkout area, there were 5 aisles open and they stepped in line for station 3. </t>
+    <t xml:space="preserve">“Yeah I don’t know, honey,” he said, still looking at the ring. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the checkout area, there were 5 aisles open, and they stepped in line for station 3. </t>
   </si>
   <si>
     <t xml:space="preserve">Alex was staring intensely off into the distance for most of the time and fidgeting with his wallet. </t>
   </si>
   <si>
-    <t xml:space="preserve">Chloe watched him trying to decide whether he looked scared or confused, and shrugged, pulling out her phone since she figured he’d talk about whatever was on his mind when he was ready. </t>
+    <t xml:space="preserve">Chloe watched him trying to decide whether he looked more scared or confused, and shrugged, pulling out her phone since she figured he’d talk about whatever was on his mind when he was ready. </t>
   </si>
   <si>
     <t>Alex looked over at their friends who were waiting by the entrance of the grocery store.</t>
@@ -97,7 +97,7 @@
     <t>Seemingly out of nowhere, Alex took Chloe’s hand and he got down on one knee, and asked, “Will you marry me?”</t>
   </si>
   <si>
-    <t>Chloe gasped</t>
+    <t>Chloe gasped with delight.</t>
   </si>
   <si>
     <t>“Chloe, I love you so much, and I want to be with you forever.</t>
